--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3363121.018468229</v>
+        <v>3359025.376963462</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8074091.468052142</v>
+        <v>8074091.468052141</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>270.7196665139539</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>236.3236898710503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>76.83081349792823</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>68.66705505271689</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>296.2592169172749</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>74.23143271269272</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269624</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705008</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>85.36610313819261</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>91.64559662317168</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>60.94419861891787</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1189,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>253.829378629531</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>96.92045304083213</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>164.9367233701398</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>173.8476477102227</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>211.353176281105</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>98.45284414233032</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>168.840916548142</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695766</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158797</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>53.08838020946239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576174</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>140.176011444184</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>53.68707741621051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695518</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012157</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>40.62253010342032</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.90570098813</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>141.2342243404105</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>40.6225301034174</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>93.59472601529637</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1230.118083357703</v>
+        <v>1491.90794572235</v>
       </c>
       <c r="C2" t="n">
-        <v>1230.118083357703</v>
+        <v>1491.90794572235</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>1491.90794572235</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>1106.119693124105</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>695.1337883344979</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4327,55 +4327,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.428721271371</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y2" t="n">
-        <v>1616.717923421825</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167644</v>
+        <v>910.6959970014103</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888575</v>
+        <v>741.7598140735034</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765217</v>
+        <v>591.6431746611677</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>443.7300810787746</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>296.8401335808642</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>128.8536688891428</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>128.8536688891428</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1464.502051920669</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1464.502051920669</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1464.502051920669</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>1209.817563714782</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W4" t="n">
-        <v>1209.817563714782</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>981.8280128167644</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y4" t="n">
-        <v>981.8280128167644</v>
+        <v>1092.34446183165</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>859.685290191162</v>
+        <v>1089.391082610346</v>
       </c>
       <c r="C5" t="n">
-        <v>859.685290191162</v>
+        <v>720.4285656699344</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>362.1628670631839</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>362.1628670631839</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331022</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362821</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816089</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230819</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740842</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723853</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400158</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926629</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926629</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190808</v>
       </c>
       <c r="V5" t="n">
-        <v>2362.658875762289</v>
+        <v>1852.996172847238</v>
       </c>
       <c r="W5" t="n">
-        <v>2009.890220492175</v>
+        <v>1852.996172847238</v>
       </c>
       <c r="X5" t="n">
-        <v>1636.424462231096</v>
+        <v>1479.530414586158</v>
       </c>
       <c r="Y5" t="n">
-        <v>1246.285130255284</v>
+        <v>1089.391082610346</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4643,28 +4643,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370163</v>
       </c>
       <c r="K6" t="n">
-        <v>520.4109910936373</v>
+        <v>614.5430248380205</v>
       </c>
       <c r="L6" t="n">
-        <v>815.114548125109</v>
+        <v>909.2465818694926</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>1272.508600828713</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>771.7836012132566</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C7" t="n">
-        <v>602.8474182853497</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D7" t="n">
-        <v>452.7307788730139</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312213</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020478</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693239</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096594</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245824</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999036</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171025</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074499</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074499</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074499</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074499</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1550.217733066223</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>864.354910933632</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>771.7836012132566</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.741330469123</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.778813528711</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.513114921961</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>882.7248623237165</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533245</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y8" t="n">
-        <v>2382.341170533245</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1547.878759156855</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1547.878759156855</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.194270950968</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1003.777100914008</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>775.7875500159902</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.7875500159902</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,25 +5062,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,16 +5129,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.6680198981028</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>467.7318369701959</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.09861476989</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>1039.109063871873</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>818.3164847283425</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5278,28 +5278,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.0424953278208</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
         <v>261.0127623330919</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>740.6909601580605</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1983.574488637966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5837,19 +5837,19 @@
         <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3175.341129796739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3006.404946868832</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328841</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122954</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.229491085994</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3577.782173770509</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3356.989594626978</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>632.7243904253734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1263.15498529716</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.165434399143</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>814.3728552556131</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,40 +6217,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6381,55 +6381,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2393.338457106056</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2393.338457106056</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2495.978408795858</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.345997432834</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>923.4098145049275</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>773.2931750925917</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.787041406604</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.3544215660705</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1701.202186474818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1411.785016437858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1183.79546553984</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.0028863963103</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.580456911439</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835325</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711968</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888038</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908936</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.46108051051</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1936.428221820186</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820186</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783226</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.021500885209</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.228921741679</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,19 +7168,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192474</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7192,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1936.428221820188</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2978.516248701935</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>2978.516248701935</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>2828.399609289599</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>2828.399609289599</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>2681.509661791689</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>2514.313562506569</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3160.164713532175</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>224.3355197601775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111066</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>98.24448441976904</v>
+        <v>193.3273467878323</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015498</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.35543909864946</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.73700564187206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>6.0522740461833</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>127.2568112467068</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>117.682081788449</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.52575990662439</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>127.9379057921822</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>6.257951202385129</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>198.4505659076175</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856542</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>245.5619442858237</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>26.01259675821734</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.5498640939298</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>245.5619442858267</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>46.69998683092751</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>713539.2816811933</v>
+        <v>713539.2816811932</v>
       </c>
     </row>
     <row r="4">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>694003.8812816655</v>
+        <v>694003.8812816654</v>
       </c>
     </row>
     <row r="14">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778546</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778545</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210054</v>
@@ -26343,19 +26343,19 @@
         <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.610093858194886e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.140440337</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099831</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.9700081906</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
@@ -26420,40 +26420,40 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769829</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744324</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="H4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
+        <v>8727.256391744175</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744195</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744228</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744188</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.25639174438</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26493,16 +26493,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-604274.1001148929</v>
       </c>
       <c r="C6" t="n">
-        <v>510477.6834610266</v>
+        <v>510477.6834610263</v>
       </c>
       <c r="D6" t="n">
-        <v>350462.2207130285</v>
+        <v>350462.2207130292</v>
       </c>
       <c r="E6" t="n">
-        <v>291169.6916979988</v>
+        <v>290822.3124436421</v>
       </c>
       <c r="F6" t="n">
-        <v>616582.1535053541</v>
+        <v>616234.7742509969</v>
       </c>
       <c r="G6" t="n">
-        <v>616582.1535053542</v>
+        <v>616234.7742509966</v>
       </c>
       <c r="H6" t="n">
-        <v>616582.1535053542</v>
+        <v>616234.774250997</v>
       </c>
       <c r="I6" t="n">
-        <v>616582.1535053538</v>
+        <v>616234.774250997</v>
       </c>
       <c r="J6" t="n">
-        <v>448976.9756953715</v>
+        <v>448629.596441014</v>
       </c>
       <c r="K6" t="n">
-        <v>616582.153505354</v>
+        <v>616234.774250997</v>
       </c>
       <c r="L6" t="n">
-        <v>568288.1834971632</v>
+        <v>567940.8042428064</v>
       </c>
       <c r="M6" t="n">
-        <v>531527.1255698422</v>
+        <v>531179.7463154853</v>
       </c>
       <c r="N6" t="n">
-        <v>616582.1535053543</v>
+        <v>616234.7742509971</v>
       </c>
       <c r="O6" t="n">
-        <v>616582.1535053541</v>
+        <v>616234.7742509972</v>
       </c>
       <c r="P6" t="n">
-        <v>616582.1535053543</v>
+        <v>616234.7742509972</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175399</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000395</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757584</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022531</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000396</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022531</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>140.828036259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>149.9142487850033</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>27.96578170597232</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>125.9954053090206</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>110.6168288244365</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>301.0185525624053</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247038</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>253.5208257574422</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039005</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>200.861050983008</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.9390567289231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>345.9318471227936</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>95.41159008788202</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>122.6284962353371</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-2.401634446869139e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.013448927515574e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.005691256768142e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181062</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336181</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491902</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857146</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767385</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730009</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342229</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166599</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190648</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147055</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745103</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43766458389761</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744849</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380022</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.173673614365</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575843</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178441</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177247</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040592</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762076</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405678</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378628</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168763</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624142</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997905</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000178</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.68437931365458</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335775</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682321</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.421266322791</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849629</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169139</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759591</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523481</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069567</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024992</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32557,10 +32557,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>167.4835451665588</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>248.5245325067415</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>245.8118639189581</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>414.9172504145574</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
-        <v>197.6412480909884</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067219</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>227.8611086463993</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>474.0150488837098</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407341</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067512</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457281</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.607173037632</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949732</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637953</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.195818140256</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939921</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313264</v>
       </c>
       <c r="K6" t="n">
-        <v>284.8319806632538</v>
+        <v>379.9148430313174</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378505</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820408</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928743</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961234</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235326</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667038</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870602</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831071</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468035</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805414</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655553</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36205,10 +36205,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>25.34951124454049</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>114.5501250924112</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>103.6778299969398</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>283.5755383312241</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.65947400496688</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37481,10 +37481,10 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316015</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>90.01966967204031</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3359025.376963462</v>
+        <v>3360785.907266248</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8074091.468052141</v>
+        <v>8074091.468052142</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>270.7196665139539</v>
+        <v>282.7650901281459</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>76.83081349792823</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>259.3089004328121</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>296.2592169172749</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>48.12002285597359</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269624</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705008</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>33.28962109883609</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>85.36610313819261</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>201.6622187863186</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>253.829378629531</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>77.31354443380498</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>161.0175085755505</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.019807611472247</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>117.6579322793572</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>191.3928535690711</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695766</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>80.08971311158797</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576174</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.90570098813</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833905</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.5813113004301</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.90794572235</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.90794572235</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="D2" t="n">
-        <v>1491.90794572235</v>
+        <v>1133.642247115598</v>
       </c>
       <c r="E2" t="n">
-        <v>1106.119693124105</v>
+        <v>747.8539945173541</v>
       </c>
       <c r="F2" t="n">
-        <v>695.1337883344979</v>
+        <v>336.8680897277465</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4345,28 +4345,28 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056586</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
         <v>1878.507785786471</v>
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605191</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919908</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
         <v>1342.935112151211</v>
@@ -4430,31 +4430,31 @@
         <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>910.6959970014103</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>741.7598140735034</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>591.6431746611677</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>443.7300810787746</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>296.8401335808642</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>128.8536688891428</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>128.8536688891428</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>1374.517937819132</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.761631868611</v>
+        <v>1119.833449613245</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>830.4162795762841</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.34446183165</v>
+        <v>602.4267286782667</v>
       </c>
       <c r="Y4" t="n">
-        <v>1092.34446183165</v>
+        <v>381.6341495347366</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1089.391082610346</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="C5" t="n">
-        <v>720.4285656699344</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="D5" t="n">
-        <v>362.1628670631839</v>
+        <v>963.0006768128692</v>
       </c>
       <c r="E5" t="n">
-        <v>362.1628670631839</v>
+        <v>577.2124242146249</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331022</v>
+        <v>166.2265194250173</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800317</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800317</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362821</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816089</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230819</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740842</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723853</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400158</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926629</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926629</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190808</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847238</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847238</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1479.530414586158</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1089.391082610346</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370163</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380205</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694926</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828713</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885493</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606424</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800317</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312213</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020478</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693239</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096594</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245824</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999036</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171025</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074499</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074499</v>
+        <v>1602.820240176683</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074499</v>
+        <v>1602.820240176683</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074499</v>
+        <v>1602.820240176683</v>
       </c>
       <c r="U7" t="n">
-        <v>1550.217733066223</v>
+        <v>1602.820240176683</v>
       </c>
       <c r="V7" t="n">
-        <v>1295.533244860336</v>
+        <v>1602.820240176683</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.533244860336</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.543693962319</v>
+        <v>1085.413519241705</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.751114818789</v>
+        <v>864.6209400981746</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4801,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="W8" t="n">
-        <v>2752.944093773487</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X8" t="n">
-        <v>2752.944093773487</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="11">
@@ -5035,52 +5035,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576.8388927589092</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9027098310023</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>256.4606111040835</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2442.902671851501</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2260.047837506405</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2040.446372529346</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1751.371145873544</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1496.686657667657</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1207.269487630696</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X13" t="n">
-        <v>979.2799367326791</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y13" t="n">
-        <v>758.4873575891489</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="14">
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5354,7 +5354,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
         <v>261.0127623330919</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.274529420831</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.673064443772</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="17">
@@ -5524,16 +5524,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5664,7 +5664,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2206.395003844405</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
         <v>402.7245934908939</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2003.736430771334</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1714.661204115532</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1459.976715909645</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1170.559545872684</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>942.5699949746667</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>721.7774158311365</v>
       </c>
     </row>
     <row r="26">
@@ -6214,43 +6214,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
         <v>484.8112968429803</v>
@@ -6381,55 +6381,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.294644713842</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239598</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239598</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,52 +6688,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,43 +7168,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192474</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998295</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998295</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998295</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2337.284991357604</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.683526380545</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.608299724743</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7785,16 +7785,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,34 +7806,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
         <v>2035.268256189238</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111066</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878323</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015498</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4.506629716718379</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.35543909864946</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.54986409393102</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>63.36835372228737</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>26.0125967582172</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>68.52575990662439</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>65.5498640939298</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.44497470121448</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>713539.2816811932</v>
+        <v>713539.2816811933</v>
       </c>
     </row>
     <row r="4">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="F2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210053</v>
@@ -26349,13 +26349,13 @@
         <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>5.610093858194886e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440337</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099831</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081906</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769829</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744175</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744195</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744228</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744188</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26493,16 +26493,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-604274.1001148929</v>
+        <v>-604274.1001148933</v>
       </c>
       <c r="C6" t="n">
-        <v>510477.6834610263</v>
+        <v>510477.6834610269</v>
       </c>
       <c r="D6" t="n">
-        <v>350462.2207130292</v>
+        <v>350462.2207130283</v>
       </c>
       <c r="E6" t="n">
-        <v>290822.3124436421</v>
+        <v>291134.9537725633</v>
       </c>
       <c r="F6" t="n">
-        <v>616234.7742509969</v>
+        <v>616547.4155799185</v>
       </c>
       <c r="G6" t="n">
-        <v>616234.7742509966</v>
+        <v>616547.4155799183</v>
       </c>
       <c r="H6" t="n">
-        <v>616234.774250997</v>
+        <v>616547.4155799184</v>
       </c>
       <c r="I6" t="n">
-        <v>616234.774250997</v>
+        <v>616547.4155799183</v>
       </c>
       <c r="J6" t="n">
-        <v>448629.596441014</v>
+        <v>448942.2377699357</v>
       </c>
       <c r="K6" t="n">
-        <v>616234.774250997</v>
+        <v>616547.4155799183</v>
       </c>
       <c r="L6" t="n">
-        <v>567940.8042428064</v>
+        <v>568253.4455717277</v>
       </c>
       <c r="M6" t="n">
-        <v>531179.7463154853</v>
+        <v>531492.3876444065</v>
       </c>
       <c r="N6" t="n">
-        <v>616234.7742509971</v>
+        <v>616547.4155799183</v>
       </c>
       <c r="O6" t="n">
-        <v>616234.7742509972</v>
+        <v>616547.4155799184</v>
       </c>
       <c r="P6" t="n">
-        <v>616234.7742509972</v>
+        <v>616547.4155799183</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175399</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000395</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757584</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022531</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000396</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022531</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>140.828036259</v>
+        <v>128.7826126448081</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>27.96578170597232</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>26.91825368838852</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>110.6168288244365</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>363.4276799169804</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624053</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247038</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039005</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>68.26795132073755</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>200.861050983008</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.25575135330152</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>95.41159008788202</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28061,13 +28061,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>112.4554808976369</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-2.401634446869139e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.013448927515574e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181062</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336181</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491902</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857146</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767385</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730009</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342229</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166599</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190648</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147055</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745103</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389761</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744849</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380022</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.173673614365</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575843</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178441</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177247</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040592</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762076</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405678</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378628</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168763</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624142</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997905</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000178</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.68437931365458</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335775</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682321</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.421266322791</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849629</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169139</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759591</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523481</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069567</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024992</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32551,13 +32551,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P21" t="n">
-        <v>248.5245325067415</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>454.5606621218849</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>414.9172504145574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34798,7 +34798,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419612</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407341</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067512</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457281</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.607173037632</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949732</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637953</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.195818140256</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939921</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313264</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313174</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378505</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820408</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928743</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961234</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235326</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667038</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870602</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423492</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831071</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468035</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295071</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805414</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36199,13 +36199,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P21" t="n">
-        <v>114.5501250924112</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>316.7192231475259</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>283.5755383312241</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316015</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
